--- a/biology/Zoologie/Cerdocyon/Cerdocyon.xlsx
+++ b/biology/Zoologie/Cerdocyon/Cerdocyon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cerdocyon est un genre de canidés, comptant deux espèces, dont une seule vivante, le Renard des savanes (Cerdocyon thous) qui vit en Amérique du Sud (Argentine, Venezuela, Paraguay, Uruguay, Brésil, Colombie).
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>† Cerdocyon avius
 Cerdocyon thous — Renard des savanes</t>
